--- a/upcoming_bets.xlsx
+++ b/upcoming_bets.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,378 +514,349 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Charlotte Hornets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Miami Heat</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>245</v>
+        <v>-130</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>-295</v>
+        <v>110</v>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Chicago Bulls</t>
+          <t>Miami Heat</t>
         </is>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.1118529955763767</v>
+        <v>0.288399363478462</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>0.8881470044236233</v>
+        <v>0.7116006265874305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Los Angeles Clippers</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>-150</v>
+        <v>-165</v>
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Oklahoma City Thunder</t>
+          <t>New Orleans Pelicans</t>
         </is>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.07804633594412633</v>
+        <v>0.2218646870660309</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>0.9219536739899811</v>
+        <v>0.7781353029998616</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Charlotte Hornets</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>105</v>
+        <v>600</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>-125</v>
+        <v>-850</v>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>Washington Wizards</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.07378814061158333</v>
+        <v>0.1654025785546778</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>0.9262118693225241</v>
+        <v>0.8345974115112148</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>Philadelphia 76ers</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>Toronto Raptors</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="n">
-        <v>-210</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>180</v>
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>Chicago Bulls</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>-130</v>
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>Philadelphia 76ers</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="n">
-        <v>0.815767038973029</v>
-      </c>
-      <c r="G5" s="2" t="n">
-        <v>0.1842329610269709</v>
+          <t>Memphis Grizzlies</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0.1918798322583874</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>0.8081201578075051</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>Atlanta Hawks</t>
-        </is>
-      </c>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>Brooklyn Nets</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>-110</v>
-      </c>
-      <c r="D6" s="3" t="n">
-        <v>-110</v>
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="inlineStr">
+        <is>
+          <t>Portland Trail Blazers</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>-1800</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1000</v>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>0.1328315030791901</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>0.8671685018878637</v>
+          <t>Minnesota Timberwolves</t>
+        </is>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>0.7576219517000373</v>
+      </c>
+      <c r="G6" s="2" t="n">
+        <v>0.2423780482999626</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Utah Jazz</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>-975</v>
+        <v>-150</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>675</v>
+        <v>130</v>
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.8395360199610392</v>
+        <v>0.7607025830436108</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>0.1604639800389608</v>
+        <v>0.2392974169563893</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>Cleveland Cavaliers</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>New York Knicks</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="n">
-        <v>-200</v>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>170</v>
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Detroit Pistons</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>295</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>-360</v>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>Cleveland Cavaliers</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="n">
-        <v>0.8061628093959499</v>
-      </c>
-      <c r="G8" s="2" t="n">
-        <v>0.1938371906040501</v>
+          <t>Orlando Magic</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>0.1751287282125945</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>0.8248712618532981</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>Detroit Pistons</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>Houston Rockets</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>165</v>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>-195</v>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>San Antonio Spurs</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>-1400</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>850</v>
       </c>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0.06804592536619573</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>0.9319540845679116</v>
+          <t>Sacramento Kings</t>
+        </is>
+      </c>
+      <c r="F9" s="3" t="n">
+        <v>0.7769561269067223</v>
+      </c>
+      <c r="G9" s="2" t="n">
+        <v>0.2230438730932777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Los Angeles Clippers</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
-        <v>230</v>
+        <v>470</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>-275</v>
+        <v>-625</v>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>Memphis Grizzlies</t>
+          <t>Los Angeles Lakers</t>
         </is>
       </c>
       <c r="F10" s="2" t="n">
-        <v>0.1156081311735324</v>
+        <v>0.1384317064644886</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.8843918688264676</v>
+        <v>0.8615682836014039</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>Los Angeles Lakers</t>
+          <t>Oklahoma City Thunder</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
-        <v>-105</v>
+        <v>170</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>-115</v>
+        <v>-200</v>
       </c>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>Minnesota Timberwolves</t>
+          <t>Phoenix Suns</t>
         </is>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0.1560868946650361</v>
+        <v>0.3359166330691408</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.8439131053349639</v>
+        <v>0.6640833669308592</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-1800</v>
+        <v>-750</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1000</v>
+        <v>550</v>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Cleveland Cavaliers</t>
         </is>
       </c>
       <c r="F12" s="3" t="n">
-        <v>0.8311255923906962</v>
+        <v>0.6431379835304963</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>0.1688744076093038</v>
+        <v>0.3568620065353962</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>Portland Trail Blazers</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>Sacramento Kings</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>800</v>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>-1250</v>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Philadelphia 76ers</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-190</v>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>160</v>
       </c>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>Sacramento Kings</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0.07471257090568542</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>0.925287439028422</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>Denver Nuggets</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Phoenix Suns</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>295</v>
-      </c>
-      <c r="D14" s="3" t="n">
-        <v>-360</v>
-      </c>
-      <c r="E14" s="3" t="inlineStr">
-        <is>
-          <t>Phoenix Suns</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="n">
-        <v>0.1524414296947585</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>0.8475585603711341</v>
+          <t>Milwaukee Bucks</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>0.7653531779564172</v>
+      </c>
+      <c r="G13" s="2" t="n">
+        <v>0.2346468220435829</v>
       </c>
     </row>
   </sheetData>
